--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_3.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_24</t>
+          <t>model_26_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999818486464311</v>
+        <v>0.9999846707487994</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991446850852508</v>
+        <v>0.9989591553867151</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999674966956467</v>
+        <v>0.9999772690891084</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997349313700529</v>
+        <v>0.9999975116550129</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998958587676344</v>
+        <v>0.9999920749729693</v>
       </c>
       <c r="G2" t="n">
-        <v>1.694349180421995e-05</v>
+        <v>1.430918311938925e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007983989289327917</v>
+        <v>0.0009715827587032603</v>
       </c>
       <c r="I2" t="n">
-        <v>2.212836546476938e-05</v>
+        <v>1.050385621415937e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>8.365688400024704e-05</v>
+        <v>3.098788103988334e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>5.289467824802828e-05</v>
+        <v>6.801322159073852e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002472267222856723</v>
+        <v>0.0003351954370331433</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004116247296290634</v>
+        <v>0.003782748090924011</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000020744404079</v>
+        <v>1.000017519144229</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004291484465500299</v>
+        <v>0.003943787508522692</v>
       </c>
       <c r="P2" t="n">
-        <v>111.9712535244476</v>
+        <v>112.3092181012485</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.8206656435166</v>
+        <v>167.1586302203175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_23</t>
+          <t>model_26_3_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999819141766141</v>
+        <v>0.9999849301234548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991444422000749</v>
+        <v>0.9989542104687389</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999676576746119</v>
+        <v>0.9999688750206952</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997358890903197</v>
+        <v>0.9999883258011788</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998962645538924</v>
+        <v>0.9999831502141204</v>
       </c>
       <c r="G3" t="n">
-        <v>1.688232225484159e-05</v>
+        <v>1.406706826384189e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000798625651582999</v>
+        <v>0.0009761986225772903</v>
       </c>
       <c r="I3" t="n">
-        <v>2.201877041139396e-05</v>
+        <v>1.438271914599604e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>8.33546230601544e-05</v>
+        <v>1.453812418245067e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>5.268857416165464e-05</v>
+        <v>1.446062223314857e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002477693108860755</v>
+        <v>0.0003672260513134811</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004108810321107752</v>
+        <v>0.003750609052386277</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000020669512441</v>
+        <v>1.000017222716052</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00428373088288722</v>
+        <v>0.003910280244577425</v>
       </c>
       <c r="P3" t="n">
-        <v>111.97848700784</v>
+        <v>112.3433481528715</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.827899126909</v>
+        <v>167.1927602719405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_22</t>
+          <t>model_26_3_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999981987628447</v>
+        <v>0.9999822266155843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991441793908225</v>
+        <v>0.9989427139511855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999678389951557</v>
+        <v>0.9999553240368785</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997369458014064</v>
+        <v>0.9999708111867024</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998967219333418</v>
+        <v>0.9999667926402382</v>
       </c>
       <c r="G4" t="n">
-        <v>1.681375819297871e-05</v>
+        <v>1.65906741906303e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007988709724842264</v>
+        <v>0.0009869301170745562</v>
       </c>
       <c r="I4" t="n">
-        <v>2.18953267387852e-05</v>
+        <v>2.064457051875464e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>8.302112016014666e-05</v>
+        <v>3.63494402448544e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>5.245626522630156e-05</v>
+        <v>2.849882415762412e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002483794890899762</v>
+        <v>0.0003984392486912267</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004100458290603467</v>
+        <v>0.004073165131765504</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000020585567489</v>
+        <v>1.000020312439332</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004275023289153281</v>
+        <v>0.004246568204038959</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9866261332905</v>
+        <v>112.0133396324266</v>
       </c>
       <c r="Q4" t="n">
-        <v>166.8360382523595</v>
+        <v>166.8627517514956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_21</t>
+          <t>model_26_3_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999820693923362</v>
+        <v>0.9999772547039626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991438750512192</v>
+        <v>0.9989269574398968</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999680400481578</v>
+        <v>0.9999386093083711</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997381503299289</v>
+        <v>0.9999462968499127</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998972267527576</v>
+        <v>0.999944508152167</v>
       </c>
       <c r="G5" t="n">
-        <v>1.673743519141362e-05</v>
+        <v>2.123173544781216e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007991550601449504</v>
+        <v>0.00100163812873168</v>
       </c>
       <c r="I5" t="n">
-        <v>2.17584491383767e-05</v>
+        <v>2.836837471374123e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>8.264096539454901e-05</v>
+        <v>6.687765703787394e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>5.219986091876944e-05</v>
+        <v>4.762355167415979e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002490515176160797</v>
+        <v>0.0004264356050443455</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004091141062272679</v>
+        <v>0.004607790733943129</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000020492123044</v>
+        <v>1.000025994624043</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00426530940712313</v>
+        <v>0.00480395392492885</v>
       </c>
       <c r="P5" t="n">
-        <v>111.9957254380268</v>
+        <v>111.5200270810424</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.8451375570959</v>
+        <v>166.3694392001114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_20</t>
+          <t>model_26_3_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999821570637285</v>
+        <v>0.9999707114725938</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991435417490178</v>
+        <v>0.9989082425774529</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999682631376885</v>
+        <v>0.9999203186494883</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997394440706411</v>
+        <v>0.9999167249929147</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998977785185882</v>
+        <v>0.9999181291088007</v>
       </c>
       <c r="G6" t="n">
-        <v>1.665559779508854e-05</v>
+        <v>2.733955471599143e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007994661831196629</v>
+        <v>0.001019107631335473</v>
       </c>
       <c r="I6" t="n">
-        <v>2.160656899064123e-05</v>
+        <v>3.682040956107988e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>8.223265484979756e-05</v>
+        <v>0.0001037041096213897</v>
       </c>
       <c r="K6" t="n">
-        <v>5.19196119202194e-05</v>
+        <v>7.026225959123478e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002498010028065386</v>
+        <v>0.0004508722117970883</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004081127025110654</v>
+        <v>0.00522872400457238</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000020391927168</v>
+        <v>1.00003347260275</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004254869051667203</v>
+        <v>0.005451321610397858</v>
       </c>
       <c r="P6" t="n">
-        <v>112.0055283882649</v>
+        <v>111.0143520274141</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.854940507334</v>
+        <v>165.8637641464831</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_19</t>
+          <t>model_26_3_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999982256138877</v>
+        <v>0.9999637609322399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991431637241495</v>
+        <v>0.9988887530345231</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999685107822656</v>
+        <v>0.9999032735770143</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997409315774957</v>
+        <v>0.9998860194019136</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998984071126531</v>
+        <v>0.9998912638007553</v>
       </c>
       <c r="G7" t="n">
-        <v>1.656311549277106e-05</v>
+        <v>3.382757904279682e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007998190527407707</v>
+        <v>0.001037300264168451</v>
       </c>
       <c r="I7" t="n">
-        <v>2.143797167981281e-05</v>
+        <v>4.469686428306132e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>8.176319081548925e-05</v>
+        <v>0.0001419424248930348</v>
       </c>
       <c r="K7" t="n">
-        <v>5.160034086820762e-05</v>
+        <v>9.331828378041169e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002506069213409035</v>
+        <v>0.0004679059297425435</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004069780767163148</v>
+        <v>0.005816148127652598</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000020278698426</v>
+        <v>1.00004141607744</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004243039760028881</v>
+        <v>0.00606375359453317</v>
       </c>
       <c r="P7" t="n">
-        <v>112.0166645861613</v>
+        <v>110.5884682803363</v>
       </c>
       <c r="Q7" t="n">
-        <v>166.8660767052303</v>
+        <v>165.4378803994054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_18</t>
+          <t>model_26_3_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999823614929194</v>
+        <v>0.9999572985480611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991427379492168</v>
+        <v>0.9988701252330592</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999687846189703</v>
+        <v>0.9998889624679113</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997425271100093</v>
+        <v>0.9998574840714375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998990858763145</v>
+        <v>0.9998667059636431</v>
       </c>
       <c r="G8" t="n">
-        <v>1.646477211871702e-05</v>
+        <v>3.985993100782088e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008002164949510808</v>
+        <v>0.001054688499168968</v>
       </c>
       <c r="I8" t="n">
-        <v>2.125154267504354e-05</v>
+        <v>5.130996628320526e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>8.125963338419102e-05</v>
+        <v>0.0001774780693000761</v>
       </c>
       <c r="K8" t="n">
-        <v>5.125558802961728e-05</v>
+        <v>0.0001143940177916407</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002515348522631156</v>
+        <v>0.0004773568045337268</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004057680632912972</v>
+        <v>0.006313472183182633</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000020158293806</v>
+        <v>1.000048801659359</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004230424498012943</v>
+        <v>0.006582249764709836</v>
       </c>
       <c r="P8" t="n">
-        <v>112.0285749651538</v>
+        <v>110.2602779480872</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.8779870842228</v>
+        <v>165.1096900671563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_17</t>
+          <t>model_26_3_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999824780830159</v>
+        <v>0.9999515901175862</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991422664101329</v>
+        <v>0.9988531895379305</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999690878740346</v>
+        <v>0.9998774720717351</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999744325104309</v>
+        <v>0.9998321287866802</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998998458980484</v>
+        <v>0.9998452163442617</v>
       </c>
       <c r="G9" t="n">
-        <v>1.635594038141242e-05</v>
+        <v>4.518850028511642e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008006566559877438</v>
+        <v>0.001070497227180568</v>
       </c>
       <c r="I9" t="n">
-        <v>2.104508554636583e-05</v>
+        <v>5.661962896476921e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>8.069217807804678e-05</v>
+        <v>0.000209053536201782</v>
       </c>
       <c r="K9" t="n">
-        <v>5.08695631654574e-05</v>
+        <v>0.0001328365825832756</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002525428029304726</v>
+        <v>0.0004812959362622042</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004044247814045576</v>
+        <v>0.006722239231470153</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000020025047982</v>
+        <v>1.000055325579902</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004216419816236593</v>
+        <v>0.007008418872507397</v>
       </c>
       <c r="P9" t="n">
-        <v>112.0418388010554</v>
+        <v>110.0093358439337</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.8912509201244</v>
+        <v>164.8587479630027</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_16</t>
+          <t>model_26_3_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999826013226665</v>
+        <v>0.9999466742303401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991417524081088</v>
+        <v>0.9988383657992506</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999694178318501</v>
+        <v>0.9998681640751507</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997462457096727</v>
+        <v>0.9998101824647346</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999006655770151</v>
+        <v>0.9998267887798428</v>
       </c>
       <c r="G10" t="n">
-        <v>1.624090157719652e-05</v>
+        <v>4.977726524678144e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008011364543152395</v>
+        <v>0.00108433453655134</v>
       </c>
       <c r="I10" t="n">
-        <v>2.082044908936632e-05</v>
+        <v>6.092081417597113e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>8.008602615369319e-05</v>
+        <v>0.000236383750349848</v>
       </c>
       <c r="K10" t="n">
-        <v>5.045323762152975e-05</v>
+        <v>0.0001486512670928449</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002536877908080874</v>
+        <v>0.000481519076464779</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004030000195681946</v>
+        <v>0.00705530050719184</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000019884202667</v>
+        <v>1.000060943736754</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004201565647262588</v>
+        <v>0.007355659256268444</v>
       </c>
       <c r="P10" t="n">
-        <v>112.0559554178689</v>
+        <v>109.8159043986403</v>
       </c>
       <c r="Q10" t="n">
-        <v>166.9053675369379</v>
+        <v>164.6653165177093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_15</t>
+          <t>model_26_3_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999827408319155</v>
+        <v>0.9999425489303414</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991411645908609</v>
+        <v>0.9988260013688184</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999697877827225</v>
+        <v>0.9998607587257019</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997484595506971</v>
+        <v>0.9997916431618246</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999016026868891</v>
+        <v>0.9998113409282867</v>
       </c>
       <c r="G11" t="n">
-        <v>1.611067581690406e-05</v>
+        <v>5.362805171581418e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008016851559138666</v>
+        <v>0.001095876189624014</v>
       </c>
       <c r="I11" t="n">
-        <v>2.056858521675927e-05</v>
+        <v>6.434279432433041e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>7.938732770037281e-05</v>
+        <v>0.0002594711323698776</v>
       </c>
       <c r="K11" t="n">
-        <v>4.997726740161715e-05</v>
+        <v>0.0001619087379748297</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002549175391392186</v>
+        <v>0.0004794713634277005</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004013810635406716</v>
+        <v>0.007323117622694188</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000019724763525</v>
+        <v>1.000065658365324</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004184686863889431</v>
+        <v>0.007634877900835584</v>
       </c>
       <c r="P11" t="n">
-        <v>112.0720568230121</v>
+        <v>109.6668765477638</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.9214689420811</v>
+        <v>164.5162886668328</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_14</t>
+          <t>model_26_3_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999828927305886</v>
+        <v>0.999939100000645</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991405060299435</v>
+        <v>0.9988159036377459</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999702043897274</v>
+        <v>0.9998548130173618</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999750941221771</v>
+        <v>0.9997760526731839</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999026478397469</v>
+        <v>0.9997984391884641</v>
       </c>
       <c r="G12" t="n">
-        <v>1.59688850731971e-05</v>
+        <v>5.684747619684445e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008022998936227988</v>
+        <v>0.001105301978340978</v>
       </c>
       <c r="I12" t="n">
-        <v>2.028495768274442e-05</v>
+        <v>6.709028059065113e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>7.860410084626752e-05</v>
+        <v>0.00027888629424888</v>
       </c>
       <c r="K12" t="n">
-        <v>4.944642075349659e-05</v>
+        <v>0.000172981115218028</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002562688409234857</v>
+        <v>0.0004758026766288941</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003996108741412963</v>
+        <v>0.00753972653329313</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000019551165042</v>
+        <v>1.000069599999263</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004166231363620393</v>
+        <v>0.007860708301200984</v>
       </c>
       <c r="P12" t="n">
-        <v>112.0897368240011</v>
+        <v>109.5502774656561</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.9391489430701</v>
+        <v>164.3996895847251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_13</t>
+          <t>model_26_3_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999830550684292</v>
+        <v>0.999936040523827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991397747260493</v>
+        <v>0.9988072646443905</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999706599772169</v>
+        <v>0.9998497143310263</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997536197338289</v>
+        <v>0.9997622794385004</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999037890780174</v>
+        <v>0.9997870651851251</v>
       </c>
       <c r="G13" t="n">
-        <v>1.581734982474962e-05</v>
+        <v>5.970336351100058e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000802982533707432</v>
+        <v>0.001113366099430245</v>
       </c>
       <c r="I13" t="n">
-        <v>1.997479209589584e-05</v>
+        <v>6.944636162960629e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>7.775875006834513e-05</v>
+        <v>0.0002960383917324338</v>
       </c>
       <c r="K13" t="n">
-        <v>4.886677108212049e-05</v>
+        <v>0.00018274237668102</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002577761139512284</v>
+        <v>0.0004715132543689032</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003977103195134573</v>
+        <v>0.00772679516429681</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000019365636081</v>
+        <v>1.000073096544198</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004146416711890026</v>
+        <v>0.00805574083111194</v>
       </c>
       <c r="P13" t="n">
-        <v>112.1088062604347</v>
+        <v>109.45224439787</v>
       </c>
       <c r="Q13" t="n">
-        <v>166.9582183795037</v>
+        <v>164.301656516939</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999832222964353</v>
+        <v>0.9999334633767554</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999138966880768</v>
+        <v>0.9988001604492637</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999711564450171</v>
+        <v>0.9998456114907177</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997564785672508</v>
+        <v>0.9997506146719158</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999050098452679</v>
+        <v>0.9997774974104503</v>
       </c>
       <c r="G14" t="n">
-        <v>1.566124982157959e-05</v>
+        <v>6.210901717861741e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008037366218173378</v>
+        <v>0.001119997553743022</v>
       </c>
       <c r="I14" t="n">
-        <v>1.963679504782324e-05</v>
+        <v>7.134226650009917e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>7.68564890350526e-05</v>
+        <v>0.0003105647697530011</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8246727613569e-05</v>
+        <v>0.0001909535181265501</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002595206245705205</v>
+        <v>0.0004665848529899107</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00395742969888027</v>
+        <v>0.00788092743137617</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00001917451836</v>
+        <v>1.000076041855137</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004125905674170427</v>
+        <v>0.008216434827898649</v>
       </c>
       <c r="P14" t="n">
-        <v>112.1286421215582</v>
+        <v>109.3732387508028</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.9780542406273</v>
+        <v>164.2226508698719</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_11</t>
+          <t>model_26_3_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999833975653694</v>
+        <v>0.9999312679599862</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991380828412741</v>
+        <v>0.9987943234331546</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999716981864504</v>
+        <v>0.9998422064757603</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997595753902188</v>
+        <v>0.9997406766490404</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999063352321624</v>
+        <v>0.9997693703191413</v>
       </c>
       <c r="G15" t="n">
-        <v>1.549764396501527e-05</v>
+        <v>6.415834236504307e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008045618338799309</v>
+        <v>0.001125446152065551</v>
       </c>
       <c r="I15" t="n">
-        <v>1.926797554900946e-05</v>
+        <v>7.291570927550658e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>7.587911740171946e-05</v>
+        <v>0.0003229407976846428</v>
       </c>
       <c r="K15" t="n">
-        <v>4.757354647536447e-05</v>
+        <v>0.0001979282534800747</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002614204327968961</v>
+        <v>0.0004613525087523465</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003936704708892359</v>
+        <v>0.008009890284207585</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000018974211006</v>
+        <v>1.000078550902873</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004104298378452087</v>
+        <v>0.008350887896365003</v>
       </c>
       <c r="P15" t="n">
-        <v>112.1496450956993</v>
+        <v>109.3083128613922</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.9990572147684</v>
+        <v>164.1577249804612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_10</t>
+          <t>model_26_3_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999835850104686</v>
+        <v>0.99992936634285</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991370960754835</v>
+        <v>0.9987894116817118</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999723010854876</v>
+        <v>0.9998393787352814</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997630090568599</v>
+        <v>0.9997320627120321</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999907806091422</v>
+        <v>0.9997623593137615</v>
       </c>
       <c r="G16" t="n">
-        <v>1.532267219278356e-05</v>
+        <v>6.593341849033588e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008054829364315301</v>
+        <v>0.00113003105643635</v>
       </c>
       <c r="I16" t="n">
-        <v>1.885751973530231e-05</v>
+        <v>7.422239599575418e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>7.479543634918914e-05</v>
+        <v>0.0003336679137672896</v>
       </c>
       <c r="K16" t="n">
-        <v>4.682647804224573e-05</v>
+        <v>0.0002039451548815219</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002635266515646055</v>
+        <v>0.0004566175924626223</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003914418499954183</v>
+        <v>0.008119939561987878</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000018759988036</v>
+        <v>1.0000807241796</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004081063399460601</v>
+        <v>0.008465622199733814</v>
       </c>
       <c r="P16" t="n">
-        <v>112.1723539674914</v>
+        <v>109.2537302717648</v>
       </c>
       <c r="Q16" t="n">
-        <v>167.0217660865604</v>
+        <v>164.1031423908338</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_9</t>
+          <t>model_26_3_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999837849220129</v>
+        <v>0.9999277042230814</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991359700730145</v>
+        <v>0.998785231813187</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999729664691062</v>
+        <v>0.9998369523932489</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997668310807462</v>
+        <v>0.999724555488731</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999094396535254</v>
+        <v>0.9997562601618184</v>
       </c>
       <c r="G17" t="n">
-        <v>1.513606354124951e-05</v>
+        <v>6.748493433568455e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008065340103105347</v>
+        <v>0.001133932780229233</v>
       </c>
       <c r="I17" t="n">
-        <v>1.840452419603461e-05</v>
+        <v>7.534359821933354e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>7.358918795623288e-05</v>
+        <v>0.0003430168161019998</v>
       </c>
       <c r="K17" t="n">
-        <v>4.599677073137634e-05</v>
+        <v>0.0002091794963041287</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002658401125086149</v>
+        <v>0.0004522694122863803</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003890509419246984</v>
+        <v>0.008214921444279584</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000018531517699</v>
+        <v>1.00008262374505</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004056136459689076</v>
+        <v>0.008564647657394278</v>
       </c>
       <c r="P17" t="n">
-        <v>112.1968606952846</v>
+        <v>109.2072123600488</v>
       </c>
       <c r="Q17" t="n">
-        <v>167.0462728143537</v>
+        <v>164.0566244791178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_8</t>
+          <t>model_26_3_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999839847852992</v>
+        <v>0.9999262570347099</v>
       </c>
       <c r="C18" t="n">
-        <v>0.999134724265738</v>
+        <v>0.9987816705655145</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999973685765423</v>
+        <v>0.9998348976643351</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997708864250264</v>
+        <v>0.9997180316445097</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999111860524824</v>
+        <v>0.9997509728759019</v>
       </c>
       <c r="G18" t="n">
-        <v>1.494949993652201e-05</v>
+        <v>6.883582115615609e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008076969167184526</v>
+        <v>0.001137257048610814</v>
       </c>
       <c r="I18" t="n">
-        <v>1.791482469952612e-05</v>
+        <v>7.629307961815581e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>7.230930256916787e-05</v>
+        <v>0.0003511410958825037</v>
       </c>
       <c r="K18" t="n">
-        <v>4.510975212380049e-05</v>
+        <v>0.0002137170877503297</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002684470121439266</v>
+        <v>0.0004480360837086913</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003866458319511799</v>
+        <v>0.008296735572269138</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000018303102515</v>
+        <v>1.000084277674617</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004031061454845524</v>
+        <v>0.00864994478219094</v>
       </c>
       <c r="P18" t="n">
-        <v>112.2216654154982</v>
+        <v>109.16757258436</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.0710775345672</v>
+        <v>164.016984703429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_7</t>
+          <t>model_26_3_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999841974361868</v>
+        <v>0.9999249876343452</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991332968266722</v>
+        <v>0.9987786324365744</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999744807219283</v>
+        <v>0.9998331412532124</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997754927241519</v>
+        <v>0.9997123207995343</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999131441498194</v>
+        <v>0.999746356591635</v>
       </c>
       <c r="G19" t="n">
-        <v>1.475099966724984e-05</v>
+        <v>7.002075067641991e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008090293684290807</v>
+        <v>0.001140093008617894</v>
       </c>
       <c r="I19" t="n">
-        <v>1.737361547701093e-05</v>
+        <v>7.710470964799113e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>7.085553328804561e-05</v>
+        <v>0.000358252930682461</v>
       </c>
       <c r="K19" t="n">
-        <v>4.411520917225244e-05</v>
+        <v>0.0002176788201652261</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002712446440541718</v>
+        <v>0.0004439872089262696</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003840703017319855</v>
+        <v>0.008367840263557851</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000018060072929</v>
+        <v>1.000085728417891</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004004209696118443</v>
+        <v>0.008724076547394816</v>
       </c>
       <c r="P19" t="n">
-        <v>112.2483994068483</v>
+        <v>109.133437843219</v>
       </c>
       <c r="Q19" t="n">
-        <v>167.0978115259174</v>
+        <v>163.982849962288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_6</t>
+          <t>model_26_3_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999844078324014</v>
+        <v>0.9999238666465557</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991317243977517</v>
+        <v>0.9987759963991424</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999753578211893</v>
+        <v>0.9998316420173468</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997804094726619</v>
+        <v>0.999707286157303</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999152601196384</v>
+        <v>0.9997423001535445</v>
       </c>
       <c r="G20" t="n">
-        <v>1.455460403626923e-05</v>
+        <v>7.106714357218757e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008104971618047471</v>
+        <v>0.001142553633852029</v>
       </c>
       <c r="I20" t="n">
-        <v>1.677648317365246e-05</v>
+        <v>7.779750009704249e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>6.930378474714305e-05</v>
+        <v>0.000364522676049434</v>
       </c>
       <c r="K20" t="n">
-        <v>4.304048074608828e-05</v>
+        <v>0.0002211600880732382</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002743460496026026</v>
+        <v>0.000440201421639957</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003815049676776075</v>
+        <v>0.008430133069660738</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000017819620113</v>
+        <v>1.000087009546794</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003977464239757979</v>
+        <v>0.008789021287217388</v>
       </c>
       <c r="P20" t="n">
-        <v>112.2752063715804</v>
+        <v>109.1037708873703</v>
       </c>
       <c r="Q20" t="n">
-        <v>167.1246184906494</v>
+        <v>163.9531830064393</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_5</t>
+          <t>model_26_3_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999846153900964</v>
+        <v>0.9999229001164383</v>
       </c>
       <c r="C21" t="n">
-        <v>0.999129951210273</v>
+        <v>0.9987737595694759</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999763055499193</v>
+        <v>0.9998303771851944</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999785812127857</v>
+        <v>0.9997029499230774</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999175740126062</v>
+        <v>0.9997388135417535</v>
       </c>
       <c r="G21" t="n">
-        <v>1.436085803862067e-05</v>
+        <v>7.196935701111253e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008121523544821298</v>
+        <v>0.00114464161616027</v>
       </c>
       <c r="I21" t="n">
-        <v>1.61312660759681e-05</v>
+        <v>7.838197359776326e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>6.759868181193979e-05</v>
+        <v>0.0003699226793062792</v>
       </c>
       <c r="K21" t="n">
-        <v>4.18652245939188e-05</v>
+        <v>0.0002241523264520213</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002777917081189835</v>
+        <v>0.0004365684181298539</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003789572276474045</v>
+        <v>0.008483475526640749</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000017582411318</v>
+        <v>1.000088114152642</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003950902213779602</v>
+        <v>0.008844634643025148</v>
       </c>
       <c r="P21" t="n">
-        <v>112.3020084882724</v>
+        <v>109.0785402532165</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.1514206073414</v>
+        <v>163.9279523722855</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_4</t>
+          <t>model_26_3_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999848022307091</v>
+        <v>0.9999220383860908</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991279777764172</v>
+        <v>0.9987717992012748</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999773117819302</v>
+        <v>0.9998292780056975</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997915258571002</v>
+        <v>0.9996990953299218</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999200240654051</v>
+        <v>0.9997357209748978</v>
       </c>
       <c r="G22" t="n">
-        <v>1.418645052808944e-05</v>
+        <v>7.277374446487601e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008139944683628743</v>
+        <v>0.001146471533825733</v>
       </c>
       <c r="I22" t="n">
-        <v>1.544621973619769e-05</v>
+        <v>7.888989971842785e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>6.579540247028148e-05</v>
+        <v>0.0003747228848558652</v>
       </c>
       <c r="K22" t="n">
-        <v>4.062081110323959e-05</v>
+        <v>0.0002268063922871465</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002816914676275259</v>
+        <v>0.0004332420588329175</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003766490478959085</v>
+        <v>0.008530752866240823</v>
       </c>
       <c r="N22" t="n">
-        <v>1.00001736887919</v>
+        <v>1.000089098987325</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003926837776358522</v>
+        <v>0.008893924676849581</v>
       </c>
       <c r="P22" t="n">
-        <v>112.3264464740942</v>
+        <v>109.0563106415351</v>
       </c>
       <c r="Q22" t="n">
-        <v>167.1758585931632</v>
+        <v>163.9057227606041</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_3</t>
+          <t>model_26_3_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999849740332579</v>
+        <v>0.999921284117251</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991257455031799</v>
+        <v>0.9987700971852015</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999784096033196</v>
+        <v>0.9998283342028454</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997977783721104</v>
+        <v>0.9996957149633128</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999227029355905</v>
+        <v>0.9997330238893686</v>
       </c>
       <c r="G23" t="n">
-        <v>1.402608039005231e-05</v>
+        <v>7.347782131828766e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000816078197444414</v>
+        <v>0.001148060291120313</v>
       </c>
       <c r="I23" t="n">
-        <v>1.469881902089689e-05</v>
+        <v>7.932602695947735e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>6.38220798518173e-05</v>
+        <v>0.0003789325261595585</v>
       </c>
       <c r="K23" t="n">
-        <v>3.92601783038862e-05</v>
+        <v>0.0002291210528559589</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002859466075998708</v>
+        <v>0.0004301519989267485</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003745140903898319</v>
+        <v>0.008571920515163896</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000017172533419</v>
+        <v>1.000089961008856</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003904579305687706</v>
+        <v>0.00893684491781609</v>
       </c>
       <c r="P23" t="n">
-        <v>112.3491841527272</v>
+        <v>109.037053896106</v>
       </c>
       <c r="Q23" t="n">
-        <v>167.1985962717962</v>
+        <v>163.886466015175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_2</t>
+          <t>model_26_3_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999851118514735</v>
+        <v>0.9999206092336085</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991232615642561</v>
+        <v>0.998768608350049</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999796041912328</v>
+        <v>0.9998275013830247</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998044547486393</v>
+        <v>0.9996927255689381</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999255812405137</v>
+        <v>0.9997306211822616</v>
       </c>
       <c r="G24" t="n">
-        <v>1.38974331352527e-05</v>
+        <v>7.410779557459046e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008183968453974263</v>
+        <v>0.001149450053382846</v>
       </c>
       <c r="I24" t="n">
-        <v>1.388553931143444e-05</v>
+        <v>7.971086941875229e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>6.171498458019295e-05</v>
+        <v>0.0003826552815550369</v>
       </c>
       <c r="K24" t="n">
-        <v>3.779825002287027e-05</v>
+        <v>0.0002311830754868946</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002906591756383156</v>
+        <v>0.0004281815369589448</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003727926117193405</v>
+        <v>0.008608588477479364</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000017015026887</v>
+        <v>1.000090732304447</v>
       </c>
       <c r="O24" t="n">
-        <v>0.003886631649873244</v>
+        <v>0.008975073911200473</v>
       </c>
       <c r="P24" t="n">
-        <v>112.3676128028183</v>
+        <v>109.0199796555199</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.2170249218874</v>
+        <v>163.8693917745889</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_1</t>
+          <t>model_26_3_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999852031040778</v>
+        <v>0.9999200110239117</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991204454432361</v>
+        <v>0.9987672998339795</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999808750924124</v>
+        <v>0.9998267805649089</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999811653294868</v>
+        <v>0.9996900607909357</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999286655335845</v>
+        <v>0.9997284993834876</v>
       </c>
       <c r="G25" t="n">
-        <v>1.381225283471287e-05</v>
+        <v>7.466619806816504e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008210255707562187</v>
+        <v>0.001150671495696548</v>
       </c>
       <c r="I25" t="n">
-        <v>1.302030525809806e-05</v>
+        <v>8.004395637160358e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>5.9443090139319e-05</v>
+        <v>0.0003859737853863767</v>
       </c>
       <c r="K25" t="n">
-        <v>3.623169769870853e-05</v>
+        <v>0.0002330040203194132</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000295864130130983</v>
+        <v>0.00042689181573252</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003716483934408014</v>
+        <v>0.008640960482965135</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000016910738197</v>
+        <v>1.000091415972672</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003874702349678094</v>
+        <v>0.009008824059979064</v>
       </c>
       <c r="P25" t="n">
-        <v>112.3799089463317</v>
+        <v>109.0049661413397</v>
       </c>
       <c r="Q25" t="n">
-        <v>167.2293210654007</v>
+        <v>163.8543782604087</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_26_3_0</t>
+          <t>model_26_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999852248252614</v>
+        <v>0.9999194857423453</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991173077802789</v>
+        <v>0.9987661613029868</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999822430369109</v>
+        <v>0.999826174879737</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999819227525873</v>
+        <v>0.9996877335220147</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999319338315469</v>
+        <v>0.9997266421518622</v>
       </c>
       <c r="G26" t="n">
-        <v>1.379197706329441e-05</v>
+        <v>7.515652535316121e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008239544413992772</v>
+        <v>0.001151734264402438</v>
       </c>
       <c r="I26" t="n">
-        <v>1.208900376737627e-05</v>
+        <v>8.032384088598547e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>5.705262784771099e-05</v>
+        <v>0.0003888719820933523</v>
       </c>
       <c r="K26" t="n">
-        <v>3.457168691131614e-05</v>
+        <v>0.0002345979114896689</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003015099049116438</v>
+        <v>0.0004257940640772551</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003713755116225949</v>
+        <v>0.008669286323173391</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000016885913987</v>
+        <v>1.000092016294462</v>
       </c>
       <c r="O26" t="n">
-        <v>0.003871857360056587</v>
+        <v>0.009038355789847559</v>
       </c>
       <c r="P26" t="n">
-        <v>112.382847014177</v>
+        <v>108.9918752289763</v>
       </c>
       <c r="Q26" t="n">
-        <v>167.2322591332461</v>
+        <v>163.8412873480454</v>
       </c>
     </row>
   </sheetData>
